--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7C635-167F-6C48-BAF2-1CDD6DAC1787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1640B8-6720-FC40-9D6D-1E2B256E82B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
   <sheets>
     <sheet name="networks" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
   <si>
     <t>host</t>
   </si>
@@ -87,9 +87,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>10.8.1.0</t>
-  </si>
-  <si>
     <t>data bus</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>ntnx-services</t>
   </si>
   <si>
-    <t>10.8.8.0</t>
-  </si>
-  <si>
-    <t>10.1.8.8</t>
-  </si>
-  <si>
     <t>services front end</t>
   </si>
   <si>
@@ -382,6 +373,78 @@
   </si>
   <si>
     <t>FS VM 3</t>
+  </si>
+  <si>
+    <t>k8s-1</t>
+  </si>
+  <si>
+    <t>10.1.8.100</t>
+  </si>
+  <si>
+    <t>k8s-1 VIP</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>10.1.8.110</t>
+  </si>
+  <si>
+    <t>10.1.8.111</t>
+  </si>
+  <si>
+    <t>Foundation VM</t>
+  </si>
+  <si>
+    <t>admin station</t>
+  </si>
+  <si>
+    <t>10.1.7.0</t>
+  </si>
+  <si>
+    <t>10.1.6.0</t>
+  </si>
+  <si>
+    <t>vms1</t>
+  </si>
+  <si>
+    <t>vms segment 1</t>
+  </si>
+  <si>
+    <t>10.1.6.1</t>
+  </si>
+  <si>
+    <t>10.1.21.0</t>
+  </si>
+  <si>
+    <t>10.1.21.1</t>
+  </si>
+  <si>
+    <t>vms2</t>
+  </si>
+  <si>
+    <t>vms3</t>
+  </si>
+  <si>
+    <t>vms segment 2</t>
+  </si>
+  <si>
+    <t>vms segment 3</t>
+  </si>
+  <si>
+    <t>10.1.22.1</t>
+  </si>
+  <si>
+    <t>10.1.23.1</t>
+  </si>
+  <si>
+    <t>10.1.22.0</t>
+  </si>
+  <si>
+    <t>10.1.23.0</t>
   </si>
 </sst>
 </file>
@@ -807,19 +870,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEF03-81BE-534C-B3E2-CF7C90128E50}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -868,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -876,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2">
         <v>24</v>
@@ -888,18 +951,18 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2">
         <v>24</v>
@@ -908,26 +971,96 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="2">
         <v>22</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,32 +1104,32 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>CONCATENATE(A4,".nutanix.lab")</f>
         <v>ns1.nutanix.lab</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE(A5,".nutanix.lab")</f>
         <v>ns2.nutanix.lab</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1007,453 +1140,453 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>CONCATENATE(A7,".nutanix.lab")</f>
-        <v>ipmi-ahv1.nutanix.lab</v>
+        <v>foundation.nutanix.lab</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>CONCATENATE(A8,".nutanix.lab")</f>
-        <v>ipmi-ahv2.nutanix.lab</v>
+        <v>admin.nutanix.lab</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>CONCATENATE(A9,".nutanix.lab")</f>
-        <v>ipmi-ahv3.nutanix.lab</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>CONCATENATE(A10,".nutanix.lab")</f>
-        <v>ipmi-ahv4.nutanix.lab</v>
+        <v>ipmi-ahv1.nutanix.lab</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>CONCATENATE(A11,".nutanix.lab")</f>
+        <v>ipmi-ahv2.nutanix.lab</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>CONCATENATE(A12,".nutanix.lab")</f>
-        <v>ntnx-ahv1.nutanix.lab</v>
+        <v>ipmi-ahv3.nutanix.lab</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>CONCATENATE(A13,".nutanix.lab")</f>
-        <v>ntnx-ahv2.nutanix.lab</v>
+        <v>ipmi-ahv4.nutanix.lab</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>CONCATENATE(A14,".nutanix.lab")</f>
-        <v>ntnx-ahv3.nutanix.lab</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>CONCATENATE(A15,".nutanix.lab")</f>
-        <v>ntnx-ahv4.nutanix.lab</v>
+        <v>ntnx-ahv1.nutanix.lab</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>CONCATENATE(A16,".nutanix.lab")</f>
+        <v>ntnx-ahv2.nutanix.lab</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4" t="str">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>CONCATENATE(A17,".nutanix.lab")</f>
-        <v>ntnx-cluster1.nutanix.lab</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>ntnx-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>CONCATENATE(A18,".nutanix.lab")</f>
-        <v>ntnx-cvm1.nutanix.lab</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>ntnx-ahv4.nutanix.lab</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>CONCATENATE(A19,".nutanix.lab")</f>
-        <v>ntnx-cvm2.nutanix.lab</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="4" t="str">
+        <f>CONCATENATE(A20,".nutanix.lab")</f>
+        <v>ntnx-cluster1.nutanix.lab</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>CONCATENATE(A20,".nutanix.lab")</f>
-        <v>ntnx-cvm3.nutanix.lab</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>CONCATENATE(A21,".nutanix.lab")</f>
+        <v>ntnx-cvm1.nutanix.lab</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>CONCATENATE(A22,".nutanix.lab")</f>
+        <v>ntnx-cvm2.nutanix.lab</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>CONCATENATE(A23,".nutanix.lab")</f>
+        <v>ntnx-cvm3.nutanix.lab</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>CONCATENATE(A24,".nutanix.lab")</f>
         <v>ntnx-cvm4.nutanix.lab</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>CONCATENATE(A27,".nutanix.lab")</f>
+        <v>ntnx-pc.nutanix.lab</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B28" s="2" t="str">
+        <f>CONCATENATE(A28,".nutanix.lab")</f>
+        <v>ntnx-pc1.nutanix.lab</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>CONCATENATE(A24,".nutanix.lab")</f>
-        <v>ntnx-pc.nutanix.lab</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>CONCATENATE(A25,".nutanix.lab")</f>
-        <v>ntnx-pc1.nutanix.lab</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>CONCATENATE(A26,".nutanix.lab")</f>
+      <c r="B29" s="2" t="str">
+        <f>CONCATENATE(A29,".nutanix.lab")</f>
         <v>ntnx-pc2.nutanix.lab</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f>CONCATENATE(A27,".nutanix.lab")</f>
-        <v>ntnx-pc3.nutanix.lab</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>CONCATENATE(A30,".nutanix.lab")</f>
+        <v>ntnx-pc3.nutanix.lab</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>CONCATENATE(A33,".nutanix.lab")</f>
         <v>NTNX-fs-1.nutanix.lab</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" ref="B34:B35" si="0">CONCATENATE(A34,".nutanix.lab")</f>
+        <v>NTNX-fs-2.nutanix.lab</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" ref="B31:B32" si="0">CONCATENATE(A31,".nutanix.lab")</f>
-        <v>NTNX-fs-2.nutanix.lab</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="2" t="str">
+      <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NTNX-fs-3.nutanix.lab</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f>CONCATENATE(A34,".nutanix.lab")</f>
-        <v>s3.nutanix.lab</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="5" t="s">
-        <v>94</v>
+      <c r="C35" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>CONCATENATE(A37,".nutanix.lab")</f>
+        <v>s3.nutanix.lab</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>102</v>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
+      <c r="C39" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <f>CONCATENATE(A41,".nutanix.lab")</f>
-        <v>sw-qfx-10g.nutanix.lab</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <f>CONCATENATE(A42,".nutanix.lab")</f>
-        <v>sw-ex-1g.nutanix.lab</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,23 +1596,80 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" ref="B44" si="1">CONCATENATE(A44,".nutanix.lab")</f>
+        <v>k8s-1.nutanix.lab</v>
+      </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>CONCATENATE(A46,".nutanix.lab")</f>
+        <v>sw-qfx-10g.nutanix.lab</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>CONCATENATE(A47,".nutanix.lab")</f>
+        <v>sw-ex-1g.nutanix.lab</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1640B8-6720-FC40-9D6D-1E2B256E82B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667ADCF-3E64-5742-BF27-818E6F0E085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
   <sheets>
     <sheet name="networks" sheetId="2" r:id="rId1"/>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEF03-81BE-534C-B3E2-CF7C90128E50}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667ADCF-3E64-5742-BF27-818E6F0E085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C6776-2172-AA43-BED5-1075DBC5DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
   <sheets>
     <sheet name="networks" sheetId="2" r:id="rId1"/>
-    <sheet name="hosts" sheetId="1" r:id="rId2"/>
+    <sheet name="hardware" sheetId="4" r:id="rId2"/>
+    <sheet name="hosts" sheetId="1" r:id="rId3"/>
+    <sheet name="access" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
   <si>
     <t>host</t>
   </si>
@@ -445,13 +447,124 @@
   </si>
   <si>
     <t>10.1.23.0</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Marvel@2023</t>
+  </si>
+  <si>
+    <t>9GBMQ7ZM</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>PQGJZDF9</t>
+  </si>
+  <si>
+    <t>Z6JN85NH</t>
+  </si>
+  <si>
+    <t>VKDD2P5L</t>
+  </si>
+  <si>
+    <t>s/n</t>
+  </si>
+  <si>
+    <t>CZJ3100HQX</t>
+  </si>
+  <si>
+    <t>CZJ3100HQY</t>
+  </si>
+  <si>
+    <t>CZJ3100HQZ</t>
+  </si>
+  <si>
+    <t>CZJ3100HR0</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>(local)</t>
+  </si>
+  <si>
+    <t>IPMI</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HW IPMI password</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>xe-0/0/0</t>
+  </si>
+  <si>
+    <t>nic</t>
+  </si>
+  <si>
+    <t>xe-0/0/1</t>
+  </si>
+  <si>
+    <t>xe-0/0/2</t>
+  </si>
+  <si>
+    <t>xe-0/0/3</t>
+  </si>
+  <si>
+    <t>nic2</t>
+  </si>
+  <si>
+    <t>ge-0/0/47</t>
+  </si>
+  <si>
+    <t>ge-0/0/5</t>
+  </si>
+  <si>
+    <t>ge-0/0/6</t>
+  </si>
+  <si>
+    <t>ge-0/0/7</t>
+  </si>
+  <si>
+    <t>ge-0/0/8</t>
+  </si>
+  <si>
+    <t>uplink</t>
+  </si>
+  <si>
+    <t>downlink</t>
+  </si>
+  <si>
+    <t>ge-0/0/3</t>
+  </si>
+  <si>
+    <t>cisco-sw</t>
+  </si>
+  <si>
+    <t>ge-0/0/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,6 +596,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Lucida Console"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -556,6 +688,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,11 +1191,241 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA28A4BD-64A6-8248-B5DD-19D4021E1D2C}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="str">
+        <f>hosts!A46</f>
+        <v>sw-qfx-10g</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>hosts!A47</f>
+        <v>sw-ex-1g</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>$A3</f>
+        <v>ipmi-ahv1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F6" si="0">$A4</f>
+        <v>ipmi-ahv2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ipmi-ahv3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" ref="J3:J8" si="1">$A3</f>
+        <v>ipmi-ahv1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ipmi-ahv4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ipmi-ahv2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>I1</f>
+        <v>sw-ex-1g</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ipmi-ahv3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ipmi-ahv4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>E1</f>
+        <v>sw-qfx-10g</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,4 +2041,146 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F439241-A721-B945-B74E-85F97780A49F}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="9" t="str">
+        <f>P2</f>
+        <v>Marvel@2023</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="1">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9">
+        <f>P3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>P4</f>
+        <v>Marvel@2023</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="O4" s="1" t="str">
+        <f>C4</f>
+        <v>Administrator</v>
+      </c>
+      <c r="P4" s="10" t="str">
+        <f>P$2</f>
+        <v>Marvel@2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C6776-2172-AA43-BED5-1075DBC5DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1D902-1F95-E14C-A5FC-E907C36C8F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
+    <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
   <sheets>
     <sheet name="networks" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
   <si>
     <t>host</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>ge-0/0/4</t>
+  </si>
+  <si>
+    <t>10.1.8.202</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEF03-81BE-534C-B3E2-CF7C90128E50}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA28A4BD-64A6-8248-B5DD-19D4021E1D2C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1333,7 @@
         <v>164</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" ref="J3:J8" si="1">$A3</f>
+        <f t="shared" ref="J5:J8" si="1">$A3</f>
         <v>ipmi-ahv1</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1424,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2008,7 @@
         <v>sw-ex-1g.nutanix.lab</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>73</v>
@@ -2048,7 +2051,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1D902-1F95-E14C-A5FC-E907C36C8F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D72C1A-8B91-1849-9214-25520BA0DA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
+    <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" activeTab="2" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
   <sheets>
     <sheet name="networks" sheetId="2" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>Marvel@2023</t>
-  </si>
-  <si>
     <t>9GBMQ7ZM</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>10.1.8.202</t>
+  </si>
+  <si>
+    <t>Nutanix@2023</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEF03-81BE-534C-B3E2-CF7C90128E50}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1227,28 +1227,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1256,29 +1256,29 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$A3</f>
         <v>ipmi-ahv1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1286,23 +1286,23 @@
         <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ref="F4:F6" si="0">$A4</f>
         <v>ipmi-ahv2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>116</v>
@@ -1314,30 +1314,30 @@
         <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ipmi-ahv3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ref="J5:J8" si="1">$A3</f>
         <v>ipmi-ahv1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1345,76 +1345,76 @@
         <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ipmi-ahv4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ipmi-ahv2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>I1</f>
         <v>sw-ex-1g</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ipmi-ahv3</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ipmi-ahv4</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2" t="str">
         <f>E1</f>
         <v>sw-qfx-10g</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -2008,7 +2008,7 @@
         <v>sw-ex-1g.nutanix.lab</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>73</v>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2059,7 +2059,7 @@
     <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>136</v>
@@ -2084,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9" t="str">
         <f>P2</f>
-        <v>Marvel@2023</v>
+        <v>Nutanix@2023</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>138</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2122,17 +2122,17 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>P4</f>
-        <v>Marvel@2023</v>
+        <v>Nutanix@2023</v>
       </c>
       <c r="E4" s="2"/>
       <c r="O4" s="1" t="str">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="P4" s="10" t="str">
         <f>P$2</f>
-        <v>Marvel@2023</v>
+        <v>Nutanix@2023</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D72C1A-8B91-1849-9214-25520BA0DA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE9075E-1E72-4847-8BEF-C6AA17BC1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" activeTab="2" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
   <si>
     <t>host</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>Nutanix@2023</t>
+  </si>
+  <si>
+    <t>dc1</t>
+  </si>
+  <si>
+    <t>10.1.8.10</t>
+  </si>
+  <si>
+    <t>AD DC for LDAP</t>
   </si>
 </sst>
 </file>
@@ -1214,11 +1223,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="str">
-        <f>hosts!A46</f>
+        <f>hosts!A47</f>
         <v>sw-qfx-10g</v>
       </c>
       <c r="I1" s="1" t="str">
-        <f>hosts!A47</f>
+        <f>hosts!A48</f>
         <v>sw-ex-1g</v>
       </c>
     </row>
@@ -1425,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,571 +1481,586 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>CONCATENATE(A4,".nutanix.lab")</f>
-        <v>ns1.nutanix.lab</v>
+        <v>dc1.nutanix.lab</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE(A5,".nutanix.lab")</f>
+        <v>ns1.nutanix.lab</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>CONCATENATE(A6,".nutanix.lab")</f>
         <v>ns2.nutanix.lab</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>CONCATENATE(A7,".nutanix.lab")</f>
-        <v>foundation.nutanix.lab</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>CONCATENATE(A8,".nutanix.lab")</f>
+        <v>foundation.nutanix.lab</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>CONCATENATE(A9,".nutanix.lab")</f>
         <v>admin.nutanix.lab</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>CONCATENATE(A10,".nutanix.lab")</f>
-        <v>ipmi-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>CONCATENATE(A11,".nutanix.lab")</f>
-        <v>ipmi-ahv2.nutanix.lab</v>
+        <v>ipmi-ahv1.nutanix.lab</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>CONCATENATE(A12,".nutanix.lab")</f>
-        <v>ipmi-ahv3.nutanix.lab</v>
+        <v>ipmi-ahv2.nutanix.lab</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>CONCATENATE(A13,".nutanix.lab")</f>
+        <v>ipmi-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>CONCATENATE(A14,".nutanix.lab")</f>
         <v>ipmi-ahv4.nutanix.lab</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>CONCATENATE(A15,".nutanix.lab")</f>
-        <v>ntnx-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>CONCATENATE(A16,".nutanix.lab")</f>
-        <v>ntnx-ahv2.nutanix.lab</v>
+        <v>ntnx-ahv1.nutanix.lab</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>CONCATENATE(A17,".nutanix.lab")</f>
-        <v>ntnx-ahv3.nutanix.lab</v>
+        <v>ntnx-ahv2.nutanix.lab</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>CONCATENATE(A18,".nutanix.lab")</f>
+        <v>ntnx-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>CONCATENATE(A19,".nutanix.lab")</f>
         <v>ntnx-ahv4.nutanix.lab</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f>CONCATENATE(A20,".nutanix.lab")</f>
+      <c r="B21" s="4" t="str">
+        <f>CONCATENATE(A21,".nutanix.lab")</f>
         <v>ntnx-cluster1.nutanix.lab</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>CONCATENATE(A21,".nutanix.lab")</f>
-        <v>ntnx-cvm1.nutanix.lab</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>CONCATENATE(A22,".nutanix.lab")</f>
-        <v>ntnx-cvm2.nutanix.lab</v>
+        <v>ntnx-cvm1.nutanix.lab</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>CONCATENATE(A23,".nutanix.lab")</f>
-        <v>ntnx-cvm3.nutanix.lab</v>
+        <v>ntnx-cvm2.nutanix.lab</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>CONCATENATE(A24,".nutanix.lab")</f>
+        <v>ntnx-cvm3.nutanix.lab</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>CONCATENATE(A25,".nutanix.lab")</f>
         <v>ntnx-cvm4.nutanix.lab</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f>CONCATENATE(A27,".nutanix.lab")</f>
+      <c r="B28" s="4" t="str">
+        <f>CONCATENATE(A28,".nutanix.lab")</f>
         <v>ntnx-pc.nutanix.lab</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>CONCATENATE(A28,".nutanix.lab")</f>
-        <v>ntnx-pc1.nutanix.lab</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>CONCATENATE(A29,".nutanix.lab")</f>
-        <v>ntnx-pc2.nutanix.lab</v>
+        <v>ntnx-pc1.nutanix.lab</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>CONCATENATE(A30,".nutanix.lab")</f>
+        <v>ntnx-pc2.nutanix.lab</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>CONCATENATE(A31,".nutanix.lab")</f>
         <v>ntnx-pc3.nutanix.lab</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <f>CONCATENATE(A33,".nutanix.lab")</f>
-        <v>NTNX-fs-1.nutanix.lab</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" ref="B34:B35" si="0">CONCATENATE(A34,".nutanix.lab")</f>
-        <v>NTNX-fs-2.nutanix.lab</v>
+        <f>CONCATENATE(A34,".nutanix.lab")</f>
+        <v>NTNX-fs-1.nutanix.lab</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" ref="B35:B36" si="0">CONCATENATE(A35,".nutanix.lab")</f>
+        <v>NTNX-fs-2.nutanix.lab</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NTNX-fs-3.nutanix.lab</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f>CONCATENATE(A37,".nutanix.lab")</f>
+      <c r="B38" s="4" t="str">
+        <f>CONCATENATE(A38,".nutanix.lab")</f>
         <v>s3.nutanix.lab</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>99</v>
+      <c r="C41" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f t="shared" ref="B44" si="1">CONCATENATE(A44,".nutanix.lab")</f>
+      <c r="B45" s="2" t="str">
+        <f t="shared" ref="B45" si="1">CONCATENATE(A45,".nutanix.lab")</f>
         <v>k8s-1.nutanix.lab</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <f>CONCATENATE(A46,".nutanix.lab")</f>
-        <v>sw-qfx-10g.nutanix.lab</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>CONCATENATE(A47,".nutanix.lab")</f>
+        <v>sw-qfx-10g.nutanix.lab</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>CONCATENATE(A48,".nutanix.lab")</f>
         <v>sw-ex-1g.nutanix.lab</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>89</v>
       </c>
     </row>

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE9075E-1E72-4847-8BEF-C6AA17BC1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7ECA97-B349-1F47-99FF-2D8D124E3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" activeTab="2" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="180">
   <si>
     <t>host</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>AD DC for LDAP</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>10.1.8.112</t>
+  </si>
+  <si>
+    <t>Move</t>
   </si>
 </sst>
 </file>
@@ -1223,11 +1232,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="str">
-        <f>hosts!A47</f>
+        <f>hosts!A48</f>
         <v>sw-qfx-10g</v>
       </c>
       <c r="I1" s="1" t="str">
-        <f>hosts!A48</f>
+        <f>hosts!A49</f>
         <v>sw-ex-1g</v>
       </c>
     </row>
@@ -1434,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,506 +1570,521 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>CONCATENATE(A10,".nutanix.lab")</f>
+        <v>move.nutanix.lab</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>CONCATENATE(A11,".nutanix.lab")</f>
-        <v>ipmi-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>CONCATENATE(A12,".nutanix.lab")</f>
-        <v>ipmi-ahv2.nutanix.lab</v>
+        <v>ipmi-ahv1.nutanix.lab</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>CONCATENATE(A13,".nutanix.lab")</f>
-        <v>ipmi-ahv3.nutanix.lab</v>
+        <v>ipmi-ahv2.nutanix.lab</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>CONCATENATE(A14,".nutanix.lab")</f>
+        <v>ipmi-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>CONCATENATE(A15,".nutanix.lab")</f>
         <v>ipmi-ahv4.nutanix.lab</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>CONCATENATE(A16,".nutanix.lab")</f>
-        <v>ntnx-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>CONCATENATE(A17,".nutanix.lab")</f>
-        <v>ntnx-ahv2.nutanix.lab</v>
+        <v>ntnx-ahv1.nutanix.lab</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>CONCATENATE(A18,".nutanix.lab")</f>
-        <v>ntnx-ahv3.nutanix.lab</v>
+        <v>ntnx-ahv2.nutanix.lab</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>CONCATENATE(A19,".nutanix.lab")</f>
+        <v>ntnx-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>CONCATENATE(A20,".nutanix.lab")</f>
         <v>ntnx-ahv4.nutanix.lab</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="4" t="str">
-        <f>CONCATENATE(A21,".nutanix.lab")</f>
+      <c r="B22" s="4" t="str">
+        <f>CONCATENATE(A22,".nutanix.lab")</f>
         <v>ntnx-cluster1.nutanix.lab</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>CONCATENATE(A22,".nutanix.lab")</f>
-        <v>ntnx-cvm1.nutanix.lab</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>CONCATENATE(A23,".nutanix.lab")</f>
-        <v>ntnx-cvm2.nutanix.lab</v>
+        <v>ntnx-cvm1.nutanix.lab</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>CONCATENATE(A24,".nutanix.lab")</f>
-        <v>ntnx-cvm3.nutanix.lab</v>
+        <v>ntnx-cvm2.nutanix.lab</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>CONCATENATE(A25,".nutanix.lab")</f>
+        <v>ntnx-cvm3.nutanix.lab</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>CONCATENATE(A26,".nutanix.lab")</f>
         <v>ntnx-cvm4.nutanix.lab</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f>CONCATENATE(A28,".nutanix.lab")</f>
+      <c r="B29" s="4" t="str">
+        <f>CONCATENATE(A29,".nutanix.lab")</f>
         <v>ntnx-pc.nutanix.lab</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>CONCATENATE(A29,".nutanix.lab")</f>
-        <v>ntnx-pc1.nutanix.lab</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>CONCATENATE(A30,".nutanix.lab")</f>
-        <v>ntnx-pc2.nutanix.lab</v>
+        <v>ntnx-pc1.nutanix.lab</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>CONCATENATE(A31,".nutanix.lab")</f>
+        <v>ntnx-pc2.nutanix.lab</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>CONCATENATE(A32,".nutanix.lab")</f>
         <v>ntnx-pc3.nutanix.lab</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="2" t="str">
-        <f>CONCATENATE(A34,".nutanix.lab")</f>
-        <v>NTNX-fs-1.nutanix.lab</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" ref="B35:B36" si="0">CONCATENATE(A35,".nutanix.lab")</f>
-        <v>NTNX-fs-2.nutanix.lab</v>
+        <f>CONCATENATE(A35,".nutanix.lab")</f>
+        <v>NTNX-fs-1.nutanix.lab</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" ref="B36:B37" si="0">CONCATENATE(A36,".nutanix.lab")</f>
+        <v>NTNX-fs-2.nutanix.lab</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NTNX-fs-3.nutanix.lab</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f>CONCATENATE(A38,".nutanix.lab")</f>
+      <c r="B39" s="4" t="str">
+        <f>CONCATENATE(A39,".nutanix.lab")</f>
         <v>s3.nutanix.lab</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>99</v>
+      <c r="C42" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f t="shared" ref="B45" si="1">CONCATENATE(A45,".nutanix.lab")</f>
+      <c r="B46" s="2" t="str">
+        <f t="shared" ref="B46" si="1">CONCATENATE(A46,".nutanix.lab")</f>
         <v>k8s-1.nutanix.lab</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <f>CONCATENATE(A47,".nutanix.lab")</f>
-        <v>sw-qfx-10g.nutanix.lab</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>CONCATENATE(A48,".nutanix.lab")</f>
+        <v>sw-qfx-10g.nutanix.lab</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>CONCATENATE(A49,".nutanix.lab")</f>
         <v>sw-ex-1g.nutanix.lab</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>89</v>
       </c>
     </row>

--- a/lab IP Planning.xlsx
+++ b/lab IP Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladek/Documents/lab/nutanix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7ECA97-B349-1F47-99FF-2D8D124E3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9C4D0-350B-DB4E-B010-DEEFF099C3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="2000" windowWidth="25120" windowHeight="16220" activeTab="2" xr2:uid="{7281F2C6-6647-E24F-8BE9-F1F23CAFF57D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="183">
   <si>
     <t>host</t>
   </si>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>Move</t>
+  </si>
+  <si>
+    <t>10.1.8.113</t>
+  </si>
+  <si>
+    <t>xray</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
   </si>
 </sst>
 </file>
@@ -1232,11 +1241,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="str">
-        <f>hosts!A48</f>
+        <f>hosts!A49</f>
         <v>sw-qfx-10g</v>
       </c>
       <c r="I1" s="1" t="str">
-        <f>hosts!A49</f>
+        <f>hosts!A50</f>
         <v>sw-ex-1g</v>
       </c>
     </row>
@@ -1443,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF25265-0902-BE42-B748-1DCD2E4232F7}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,506 +1594,521 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>CONCATENATE(A11,".nutanix.lab")</f>
+        <v>xray.nutanix.lab</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>CONCATENATE(A12,".nutanix.lab")</f>
-        <v>ipmi-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>CONCATENATE(A13,".nutanix.lab")</f>
-        <v>ipmi-ahv2.nutanix.lab</v>
+        <v>ipmi-ahv1.nutanix.lab</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>CONCATENATE(A14,".nutanix.lab")</f>
-        <v>ipmi-ahv3.nutanix.lab</v>
+        <v>ipmi-ahv2.nutanix.lab</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>CONCATENATE(A15,".nutanix.lab")</f>
+        <v>ipmi-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>CONCATENATE(A16,".nutanix.lab")</f>
         <v>ipmi-ahv4.nutanix.lab</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>CONCATENATE(A17,".nutanix.lab")</f>
-        <v>ntnx-ahv1.nutanix.lab</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>CONCATENATE(A18,".nutanix.lab")</f>
-        <v>ntnx-ahv2.nutanix.lab</v>
+        <v>ntnx-ahv1.nutanix.lab</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>CONCATENATE(A19,".nutanix.lab")</f>
-        <v>ntnx-ahv3.nutanix.lab</v>
+        <v>ntnx-ahv2.nutanix.lab</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>CONCATENATE(A20,".nutanix.lab")</f>
+        <v>ntnx-ahv3.nutanix.lab</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>CONCATENATE(A21,".nutanix.lab")</f>
         <v>ntnx-ahv4.nutanix.lab</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <f>CONCATENATE(A22,".nutanix.lab")</f>
+      <c r="B23" s="4" t="str">
+        <f>CONCATENATE(A23,".nutanix.lab")</f>
         <v>ntnx-cluster1.nutanix.lab</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>CONCATENATE(A23,".nutanix.lab")</f>
-        <v>ntnx-cvm1.nutanix.lab</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>CONCATENATE(A24,".nutanix.lab")</f>
-        <v>ntnx-cvm2.nutanix.lab</v>
+        <v>ntnx-cvm1.nutanix.lab</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>CONCATENATE(A25,".nutanix.lab")</f>
-        <v>ntnx-cvm3.nutanix.lab</v>
+        <v>ntnx-cvm2.nutanix.lab</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>CONCATENATE(A26,".nutanix.lab")</f>
+        <v>ntnx-cvm3.nutanix.lab</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>CONCATENATE(A27,".nutanix.lab")</f>
         <v>ntnx-cvm4.nutanix.lab</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f>CONCATENATE(A29,".nutanix.lab")</f>
+      <c r="B30" s="4" t="str">
+        <f>CONCATENATE(A30,".nutanix.lab")</f>
         <v>ntnx-pc.nutanix.lab</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>CONCATENATE(A30,".nutanix.lab")</f>
-        <v>ntnx-pc1.nutanix.lab</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>CONCATENATE(A31,".nutanix.lab")</f>
-        <v>ntnx-pc2.nutanix.lab</v>
+        <v>ntnx-pc1.nutanix.lab</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>CONCATENATE(A32,".nutanix.lab")</f>
+        <v>ntnx-pc2.nutanix.lab</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>CONCATENATE(A33,".nutanix.lab")</f>
         <v>ntnx-pc3.nutanix.lab</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f>CONCATENATE(A35,".nutanix.lab")</f>
-        <v>NTNX-fs-1.nutanix.lab</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" ref="B36:B37" si="0">CONCATENATE(A36,".nutanix.lab")</f>
-        <v>NTNX-fs-2.nutanix.lab</v>
+        <f>CONCATENATE(A36,".nutanix.lab")</f>
+        <v>NTNX-fs-1.nutanix.lab</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" ref="B37:B38" si="0">CONCATENATE(A37,".nutanix.lab")</f>
+        <v>NTNX-fs-2.nutanix.lab</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NTNX-fs-3.nutanix.lab</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f>CONCATENATE(A39,".nutanix.lab")</f>
+      <c r="B40" s="4" t="str">
+        <f>CONCATENATE(A40,".nutanix.lab")</f>
         <v>s3.nutanix.lab</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>99</v>
+      <c r="C43" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f t="shared" ref="B46" si="1">CONCATENATE(A46,".nutanix.lab")</f>
+      <c r="B47" s="2" t="str">
+        <f t="shared" ref="B47" si="1">CONCATENATE(A47,".nutanix.lab")</f>
         <v>k8s-1.nutanix.lab</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <f>CONCATENATE(A48,".nutanix.lab")</f>
-        <v>sw-qfx-10g.nutanix.lab</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>CONCATENATE(A49,".nutanix.lab")</f>
+        <v>sw-qfx-10g.nutanix.lab</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>CONCATENATE(A50,".nutanix.lab")</f>
         <v>sw-ex-1g.nutanix.lab</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
     </row>
